--- a/Magoosh/AlmostFullTestReview.xlsx
+++ b/Magoosh/AlmostFullTestReview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Melton\OneDrive\Desktop\MCAT\Magoosh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60056CDA-E1CF-4660-8023-DE2D5A998B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37A300C1-3009-49A4-AD26-BA0AE651B70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="3" xr2:uid="{AEC0C6A6-91ED-47A5-9FB7-17B69C10C255}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="121">
   <si>
     <t>Question</t>
   </si>
@@ -292,6 +292,105 @@
   </si>
   <si>
     <t>KNOW UR AMINO ACIDS</t>
+  </si>
+  <si>
+    <t>Psychology: Experimenter's bias</t>
+  </si>
+  <si>
+    <t>Observer-expectancy effect</t>
+  </si>
+  <si>
+    <t>Psychology: Timing of Emotion</t>
+  </si>
+  <si>
+    <t>Two-Factor theory=Schacter-Singer theory, which is emotational stimulus will generate general autonomic arousal (the first factor), but then a cognitive component of the mind (the second factor) will label the arousal and interpret everything as a specific emotion.</t>
+  </si>
+  <si>
+    <t>James-Lange theory, stimulus -&gt; physiological response -&gt; emotion</t>
+  </si>
+  <si>
+    <t>Opponent-Process Theory-emotions come in pairs</t>
+  </si>
+  <si>
+    <t>Cannon-Bard theory- independence between emotion and physiological response</t>
+  </si>
+  <si>
+    <t>Hard question but now know that diploma = house</t>
+  </si>
+  <si>
+    <t>Stages of Illness</t>
+  </si>
+  <si>
+    <t>Symptom-&gt;sick role-&gt;intersection w healthcare professionals-&gt;being a dependent patient</t>
+  </si>
+  <si>
+    <t>Sanction</t>
+  </si>
+  <si>
+    <t>Sanction is a penalty for disobeying a rule</t>
+  </si>
+  <si>
+    <t>definitely just a careless mistake. Cuz no way pop levels off</t>
+  </si>
+  <si>
+    <t>Had the right answer first, but changed it</t>
+  </si>
+  <si>
+    <t>Increase the dependency ratio not decrease. Fatigue maybe</t>
+  </si>
+  <si>
+    <t>Neurology</t>
+  </si>
+  <si>
+    <t>Look to right -&gt;</t>
+  </si>
+  <si>
+    <t>Definitions</t>
+  </si>
+  <si>
+    <t>Accommodation can also mean to accommodate the lens to the new light</t>
+  </si>
+  <si>
+    <t>Reading: pay more attention to "this is impossible in practice"</t>
+  </si>
+  <si>
+    <t>Psychoactive Drugs</t>
+  </si>
+  <si>
+    <t>Didn't know that Marijuana has the highest safety ratio considering it is illegal in most states, while alcohol has a safety ratio of 10</t>
+  </si>
+  <si>
+    <t>I put the correct answer first. Shouldn’t have changed it.</t>
+  </si>
+  <si>
+    <t>Fatigue? Enhanced activation of dopamine function -&gt; sensitized to the effects of cocaine</t>
+  </si>
+  <si>
+    <t>Processing</t>
+  </si>
+  <si>
+    <t>Didn't know bottom-up processing can be used for stuff that's not like problem solving</t>
+  </si>
+  <si>
+    <t>Psychology Models</t>
+  </si>
+  <si>
+    <t>Elaboration likelihood model - how likely something elaborated is persuasive</t>
+  </si>
+  <si>
+    <t>Marked this correct first. Not sure why I changed it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reading? I don’t really like the question cuz it doesn't say if rewards were actually given. Like after each session? Did the kids just not play w the markers cuz they were interested in the reward? </t>
+  </si>
+  <si>
+    <t>KNOW PIAGETS</t>
+  </si>
+  <si>
+    <t>Assimilation vs Accomodation</t>
+  </si>
+  <si>
+    <t>assimilate the new information into an existing schema, or accommodate the schema in order to make sense of the new information</t>
   </si>
 </sst>
 </file>
@@ -514,6 +613,72 @@
         <a:xfrm>
           <a:off x="7759700" y="2032000"/>
           <a:ext cx="3333750" cy="4781550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>412750</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8826CACA-2E19-44A5-8A22-A9E36C13E158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7505700" y="3867150"/>
+          <a:ext cx="6451600" cy="4832350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1890,15 +2055,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{116AF39F-2B9D-4A0F-A280-DF5E0D39BD7A}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="14.7265625" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" customWidth="1"/>
+    <col min="7" max="7" width="36.36328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="34.90625" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" customWidth="1"/>
+    <col min="10" max="10" width="11.81640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1924,126 +2098,427 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>13</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>25</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="58" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>31</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>32</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>35</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>36</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>37</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>39</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="58" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>43</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
       </c>
+      <c r="C20" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>